--- a/MySeleniumAutomationProject/ExcelFiles/LoginData_OHRM.xlsx
+++ b/MySeleniumAutomationProject/ExcelFiles/LoginData_OHRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarAgile\Demos\SA2505022\MySeleniumAutomationProject\ExcelFiles\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Not Run</t>
-  </si>
-  <si>
     <t>pallavi</t>
   </si>
   <si>
@@ -55,12 +52,34 @@
   </si>
   <si>
     <t>vaishnavi123</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>adam sahoo</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>manda user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,89 +391,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="D8" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
